--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq_full/AVERAGE_10_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq_full.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq_full/AVERAGE_10_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq_full.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08661448288610207</v>
+        <v>0.1369420173923726</v>
       </c>
       <c r="C2">
-        <v>0.9270643824389406</v>
+        <v>0.9020021672123393</v>
       </c>
       <c r="D2">
-        <v>4.428799052064384</v>
+        <v>4.56720535997291</v>
       </c>
       <c r="E2">
-        <v>2.104471204855126</v>
+        <v>2.137102093951739</v>
       </c>
       <c r="F2">
-        <v>2.126447978618142</v>
+        <v>2.15627664282098</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1613994061433811</v>
+        <v>0.08661448288610207</v>
       </c>
       <c r="C3">
-        <v>0.862202612328998</v>
+        <v>0.9270643824389406</v>
       </c>
       <c r="D3">
-        <v>4.308048418170272</v>
+        <v>4.428799052064384</v>
       </c>
       <c r="E3">
-        <v>2.075583874038887</v>
+        <v>2.104471204855126</v>
       </c>
       <c r="F3">
-        <v>2.09322239951163</v>
+        <v>2.126447978618142</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.137650373324838</v>
+        <v>0.1613994061433811</v>
       </c>
       <c r="C4">
-        <v>0.9465616993449896</v>
+        <v>0.862202612328998</v>
       </c>
       <c r="D4">
-        <v>4.602468382235409</v>
+        <v>4.308048418170272</v>
       </c>
       <c r="E4">
-        <v>2.145336426352615</v>
+        <v>2.075583874038887</v>
       </c>
       <c r="F4">
-        <v>2.16625303313191</v>
+        <v>2.09322239951163</v>
       </c>
       <c r="G4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1680076031125458</v>
+        <v>0.137650373324838</v>
       </c>
       <c r="C5">
-        <v>0.9292021643513073</v>
+        <v>0.9465616993449896</v>
       </c>
       <c r="D5">
-        <v>4.657653856245174</v>
+        <v>4.602468382235409</v>
       </c>
       <c r="E5">
-        <v>2.158159831023915</v>
+        <v>2.145336426352615</v>
       </c>
       <c r="F5">
-        <v>2.177691475520525</v>
+        <v>2.16625303313191</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1567301343372734</v>
+        <v>0.1680076031125458</v>
       </c>
       <c r="C6">
-        <v>0.926430564972122</v>
+        <v>0.9292021643513073</v>
       </c>
       <c r="D6">
-        <v>4.632726024305604</v>
+        <v>4.657653856245174</v>
       </c>
       <c r="E6">
-        <v>2.152376831390267</v>
+        <v>2.158159831023915</v>
       </c>
       <c r="F6">
-        <v>2.173330561955229</v>
+        <v>2.177691475520525</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1797246099888743</v>
+        <v>0.1567301343372734</v>
       </c>
       <c r="C7">
-        <v>0.9586113362950345</v>
+        <v>0.926430564972122</v>
       </c>
       <c r="D7">
-        <v>4.797106353257027</v>
+        <v>4.632726024305604</v>
       </c>
       <c r="E7">
-        <v>2.19022974896631</v>
+        <v>2.152376831390267</v>
       </c>
       <c r="F7">
-        <v>2.210651468620558</v>
+        <v>2.173330561955229</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1702407976069835</v>
+        <v>0.1797246099888743</v>
       </c>
       <c r="C8">
-        <v>0.9494741273191968</v>
+        <v>0.9586113362950345</v>
       </c>
       <c r="D8">
-        <v>4.936840079307613</v>
+        <v>4.797106353257027</v>
       </c>
       <c r="E8">
-        <v>2.221900105609524</v>
+        <v>2.19022974896631</v>
       </c>
       <c r="F8">
-        <v>2.244328922413887</v>
+        <v>2.210651468620558</v>
       </c>
       <c r="G8">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1851500834327433</v>
+        <v>0.1702407976069835</v>
       </c>
       <c r="C9">
-        <v>0.9537515913784798</v>
+        <v>0.9494741273191968</v>
       </c>
       <c r="D9">
-        <v>4.993552884110781</v>
+        <v>4.936840079307613</v>
       </c>
       <c r="E9">
-        <v>2.234625893547012</v>
+        <v>2.221900105609524</v>
       </c>
       <c r="F9">
-        <v>2.256835554051794</v>
+        <v>2.244328922413887</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1699473510309943</v>
+        <v>0.1851500834327433</v>
       </c>
       <c r="C10">
-        <v>0.9584070516082396</v>
+        <v>0.9537515913784798</v>
       </c>
       <c r="D10">
-        <v>5.115813739702581</v>
+        <v>4.993552884110781</v>
       </c>
       <c r="E10">
-        <v>2.261816469058129</v>
+        <v>2.234625893547012</v>
       </c>
       <c r="F10">
-        <v>2.286533466665112</v>
+        <v>2.256835554051794</v>
       </c>
       <c r="G10">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1041020868223144</v>
+        <v>0.1699473510309943</v>
       </c>
       <c r="C11">
-        <v>0.9313430195930439</v>
+        <v>0.9584070516082396</v>
       </c>
       <c r="D11">
-        <v>5.067261662368995</v>
+        <v>5.115813739702581</v>
       </c>
       <c r="E11">
-        <v>2.251057898493283</v>
+        <v>2.261816469058129</v>
       </c>
       <c r="F11">
-        <v>2.280546795610814</v>
+        <v>2.286533466665112</v>
       </c>
       <c r="G11">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
